--- a/Seller_Diversity.xlsx
+++ b/Seller_Diversity.xlsx
@@ -432,7 +432,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Energy Intensive Industries</t>
+          <t>Energ. Intense</t>
         </is>
       </c>
       <c r="D4">
@@ -452,7 +452,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Cultural and Creative Industries</t>
+          <t>Culture</t>
         </is>
       </c>
       <c r="D5">
@@ -492,7 +492,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Aerospace &amp; Defence</t>
+          <t>Defence</t>
         </is>
       </c>
       <c r="D7">
@@ -552,7 +552,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Energy - Renewables</t>
+          <t>Energy</t>
         </is>
       </c>
       <c r="D10">
@@ -572,7 +572,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Mobility - Transport - Automotive</t>
+          <t>Mobility</t>
         </is>
       </c>
       <c r="D11">
@@ -632,7 +632,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Proximity, Social Economy and Civil Security</t>
+          <t>Social Economy</t>
         </is>
       </c>
       <c r="D14">
@@ -652,7 +652,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>TOURISM</t>
+          <t>Tourism</t>
         </is>
       </c>
       <c r="D15">
@@ -712,7 +712,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Energy Intensive Industries</t>
+          <t>Energ. Intense</t>
         </is>
       </c>
       <c r="D18">
@@ -732,7 +732,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Cultural and Creative Industries</t>
+          <t>Culture</t>
         </is>
       </c>
       <c r="D19">
@@ -772,7 +772,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Aerospace &amp; Defence</t>
+          <t>Defence</t>
         </is>
       </c>
       <c r="D21">
@@ -832,7 +832,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Energy - Renewables</t>
+          <t>Energy</t>
         </is>
       </c>
       <c r="D24">
@@ -852,7 +852,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Mobility - Transport - Automotive</t>
+          <t>Mobility</t>
         </is>
       </c>
       <c r="D25">
@@ -912,7 +912,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Proximity, Social Economy and Civil Security</t>
+          <t>Social Economy</t>
         </is>
       </c>
       <c r="D28">
@@ -932,7 +932,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>TOURISM</t>
+          <t>Tourism</t>
         </is>
       </c>
       <c r="D29">
@@ -992,7 +992,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Energy Intensive Industries</t>
+          <t>Energ. Intense</t>
         </is>
       </c>
       <c r="D32">
@@ -1012,7 +1012,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Cultural and Creative Industries</t>
+          <t>Culture</t>
         </is>
       </c>
       <c r="D33">
@@ -1052,7 +1052,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Aerospace &amp; Defence</t>
+          <t>Defence</t>
         </is>
       </c>
       <c r="D35">
@@ -1112,7 +1112,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Energy - Renewables</t>
+          <t>Energy</t>
         </is>
       </c>
       <c r="D38">
@@ -1132,7 +1132,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Mobility - Transport - Automotive</t>
+          <t>Mobility</t>
         </is>
       </c>
       <c r="D39">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Proximity, Social Economy and Civil Security</t>
+          <t>Social Economy</t>
         </is>
       </c>
       <c r="D42">
@@ -1212,7 +1212,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>TOURISM</t>
+          <t>Tourism</t>
         </is>
       </c>
       <c r="D43">
@@ -1272,7 +1272,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Energy Intensive Industries</t>
+          <t>Energ. Intense</t>
         </is>
       </c>
       <c r="D46">
@@ -1292,7 +1292,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Cultural and Creative Industries</t>
+          <t>Culture</t>
         </is>
       </c>
       <c r="D47">
@@ -1332,7 +1332,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Aerospace &amp; Defence</t>
+          <t>Defence</t>
         </is>
       </c>
       <c r="D49">
@@ -1392,7 +1392,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Energy - Renewables</t>
+          <t>Energy</t>
         </is>
       </c>
       <c r="D52">
@@ -1412,7 +1412,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Mobility - Transport - Automotive</t>
+          <t>Mobility</t>
         </is>
       </c>
       <c r="D53">
@@ -1472,7 +1472,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Proximity, Social Economy and Civil Security</t>
+          <t>Social Economy</t>
         </is>
       </c>
       <c r="D56">
@@ -1492,7 +1492,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>TOURISM</t>
+          <t>Tourism</t>
         </is>
       </c>
       <c r="D57">
@@ -1552,7 +1552,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Energy Intensive Industries</t>
+          <t>Energ. Intense</t>
         </is>
       </c>
       <c r="D60">
@@ -1572,7 +1572,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Cultural and Creative Industries</t>
+          <t>Culture</t>
         </is>
       </c>
       <c r="D61">
@@ -1612,7 +1612,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Aerospace &amp; Defence</t>
+          <t>Defence</t>
         </is>
       </c>
       <c r="D63">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Energy - Renewables</t>
+          <t>Energy</t>
         </is>
       </c>
       <c r="D66">
@@ -1692,7 +1692,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Mobility - Transport - Automotive</t>
+          <t>Mobility</t>
         </is>
       </c>
       <c r="D67">
@@ -1752,7 +1752,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Proximity, Social Economy and Civil Security</t>
+          <t>Social Economy</t>
         </is>
       </c>
       <c r="D70">
@@ -1772,7 +1772,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>TOURISM</t>
+          <t>Tourism</t>
         </is>
       </c>
       <c r="D71">
@@ -1832,7 +1832,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Energy Intensive Industries</t>
+          <t>Energ. Intense</t>
         </is>
       </c>
       <c r="D74">
@@ -1852,7 +1852,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Cultural and Creative Industries</t>
+          <t>Culture</t>
         </is>
       </c>
       <c r="D75">
@@ -1892,7 +1892,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Aerospace &amp; Defence</t>
+          <t>Defence</t>
         </is>
       </c>
       <c r="D77">
@@ -1952,7 +1952,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Energy - Renewables</t>
+          <t>Energy</t>
         </is>
       </c>
       <c r="D80">
@@ -1972,7 +1972,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Mobility - Transport - Automotive</t>
+          <t>Mobility</t>
         </is>
       </c>
       <c r="D81">
@@ -2032,7 +2032,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Proximity, Social Economy and Civil Security</t>
+          <t>Social Economy</t>
         </is>
       </c>
       <c r="D84">
@@ -2052,7 +2052,7 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>TOURISM</t>
+          <t>Tourism</t>
         </is>
       </c>
       <c r="D85">
